--- a/ComcastCRMGUIFramework/testdata/testScriptdata.xlsx
+++ b/ComcastCRMGUIFramework/testdata/testScriptdata.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11616" windowHeight="6336" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
     <sheet name="product" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Akshay" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="147">
   <si>
     <t>TC_ID</t>
   </si>
@@ -444,19 +443,46 @@
   </si>
   <si>
     <t>faceBook_kdd</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Bill Address</t>
+  </si>
+  <si>
+    <t>Ship Address</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Tyss</t>
+  </si>
+  <si>
+    <t>No Price Books Found !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -511,13 +537,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -613,7 +643,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,29 +820,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +857,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -840,14 +870,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +892,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
@@ -875,14 +905,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +929,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
@@ -920,21 +950,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +977,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -960,7 +990,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
@@ -994,7 +1024,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -1022,7 +1052,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1064,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>115</v>
       </c>
@@ -1052,20 +1082,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -1073,7 +1103,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -1081,7 +1111,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>135</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -1103,20 +1133,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1188,7 +1218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1442,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
@@ -1508,7 +1538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
@@ -1524,7 +1554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1532,7 +1562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
@@ -1540,7 +1570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -1548,7 +1578,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -1556,7 +1586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1564,7 +1594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -1572,7 +1602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -1580,7 +1610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -1588,7 +1618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -1596,7 +1626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>58</v>
       </c>
@@ -1604,7 +1634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>58</v>
       </c>
@@ -1612,7 +1642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
@@ -1620,7 +1650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>58</v>
       </c>
@@ -1628,7 +1658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>58</v>
       </c>
@@ -1636,7 +1666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
@@ -1644,7 +1674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>58</v>
       </c>
@@ -1652,7 +1682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>58</v>
       </c>
@@ -1660,7 +1690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>58</v>
       </c>
@@ -1668,7 +1698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>58</v>
       </c>
@@ -1676,7 +1706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
@@ -1692,7 +1722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
@@ -1700,7 +1730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -1708,7 +1738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1716,7 +1746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -1724,7 +1754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>58</v>
       </c>
@@ -1756,7 +1786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>58</v>
       </c>
@@ -1764,7 +1794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
@@ -1772,7 +1802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>58</v>
       </c>
@@ -1780,7 +1810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>58</v>
       </c>
@@ -1796,7 +1826,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>58</v>
       </c>
@@ -1804,7 +1834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>58</v>
       </c>
@@ -1812,7 +1842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>58</v>
       </c>
@@ -1820,7 +1850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>58</v>
       </c>
@@ -1836,7 +1866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>58</v>
       </c>
@@ -1852,7 +1882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>58</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>58</v>
       </c>
@@ -1868,7 +1898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>58</v>
       </c>
@@ -1876,7 +1906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>58</v>
       </c>
@@ -1884,7 +1914,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>58</v>
       </c>
@@ -1892,7 +1922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>58</v>
       </c>
@@ -1900,7 +1930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>58</v>
       </c>
@@ -1908,7 +1938,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>58</v>
       </c>
@@ -1919,4 +1949,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ComcastCRMGUIFramework/testdata/testScriptdata.xlsx
+++ b/ComcastCRMGUIFramework/testdata/testScriptdata.xlsx
@@ -457,13 +457,13 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
     <t>Tyss</t>
   </si>
   <si>
     <t>No Price Books Found !</t>
+  </si>
+  <si>
+    <t>Demo_</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6">
         <v>5</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
